--- a/ActiveFault-Plates.xlsx
+++ b/ActiveFault-Plates.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siriwat/Documents/Master_DADS8/DADS5001-Tools/Project-Pandas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smillfilm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B4F84F-F661-064C-8694-B8137CDE2AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCB313E-EDE4-D74D-8527-878383A9CC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17620" activeTab="1" xr2:uid="{F0C9D4CB-DF63-B149-8339-9277BA1F9401}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="2" xr2:uid="{F0C9D4CB-DF63-B149-8339-9277BA1F9401}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveFault" sheetId="1" r:id="rId1"/>
     <sheet name="73 sensors EQ" sheetId="2" r:id="rId2"/>
+    <sheet name="73 sensor Detail" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="350">
   <si>
     <t>Plate</t>
   </si>
@@ -583,13 +584,538 @@
   </si>
   <si>
     <t>54CC+222 ตำบล กกสะทอน อำเภอด่านซ้าย เลย</t>
+  </si>
+  <si>
+    <t>Station Code</t>
+  </si>
+  <si>
+    <t>Station name</t>
+  </si>
+  <si>
+    <t>Component name</t>
+  </si>
+  <si>
+    <t>Equipment Code</t>
+  </si>
+  <si>
+    <t>Equipment Type</t>
+  </si>
+  <si>
+    <t>Lat. (º)</t>
+  </si>
+  <si>
+    <t>Long. (º)</t>
+  </si>
+  <si>
+    <t>Estimate period</t>
+  </si>
+  <si>
+    <t>Orientation result (º)</t>
+  </si>
+  <si>
+    <r>
+      <t>Orientation from North</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (º)</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of earthquakes</t>
+  </si>
+  <si>
+    <t>Passed Quality Control</t>
+  </si>
+  <si>
+    <t>SHZ, SHN, SHE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Geotech S-13 (short-period) + Geotech Smart-24R</t>
+  </si>
+  <si>
+    <t>2009 - 2019</t>
+  </si>
+  <si>
+    <t>4.7 ±13.2</t>
+  </si>
+  <si>
+    <t>EHZ, EHN, EHE</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Guralp CMG-3ESP (1 sec) + Guralp Affinity</t>
+  </si>
+  <si>
+    <t>2020 - 2022</t>
+  </si>
+  <si>
+    <t>352.6 ±4.0</t>
+  </si>
+  <si>
+    <t>BHZ, BHN, BHE</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Nanometrics Trilium-120 (Broadband) + Nanometrics Taurus</t>
+  </si>
+  <si>
+    <t>359.3 ±2.9</t>
+  </si>
+  <si>
+    <t>HHZ, HHN, HHE</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Guralp CMG-3T (120 sec) + Guralp Affinity</t>
+  </si>
+  <si>
+    <t>357.3 ±3.4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Geotech KS-2000 (Broadband) + Geotech Smart-24R</t>
+  </si>
+  <si>
+    <t>2009 - 2017</t>
+  </si>
+  <si>
+    <t>358.6 ±1.2</t>
+  </si>
+  <si>
+    <t>2018 - 2021</t>
+  </si>
+  <si>
+    <t>0.6 ±1.7</t>
+  </si>
+  <si>
+    <t>1.5 ±0.9</t>
+  </si>
+  <si>
+    <t>3.1 ±3.2</t>
+  </si>
+  <si>
+    <t>0.1 ±1.9</t>
+  </si>
+  <si>
+    <t>1.2 ±2.5</t>
+  </si>
+  <si>
+    <t>336.3 ±1.7</t>
+  </si>
+  <si>
+    <t>CHZ, CHN, CHE</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Nanometrics Trilium-40 (Broadband) + Nanometrics Taurus</t>
+  </si>
+  <si>
+    <t>1.1 ±3.8</t>
+  </si>
+  <si>
+    <t>359.3 ±2.1</t>
+  </si>
+  <si>
+    <t>356.8 ±2.3</t>
+  </si>
+  <si>
+    <t>6.4 ±2.5</t>
+  </si>
+  <si>
+    <t>5.7 ±4.4</t>
+  </si>
+  <si>
+    <t>358.0 ±23.7</t>
+  </si>
+  <si>
+    <t>4.6 ±22.6</t>
+  </si>
+  <si>
+    <t>358.8 ±2.0</t>
+  </si>
+  <si>
+    <t>5.9 ±4.7</t>
+  </si>
+  <si>
+    <t>356.2 ±8.7</t>
+  </si>
+  <si>
+    <t>356.2 ±1.5</t>
+  </si>
+  <si>
+    <t>2018 - 2022</t>
+  </si>
+  <si>
+    <t>359.8 ±1.4</t>
+  </si>
+  <si>
+    <t>23.8 ±3.7</t>
+  </si>
+  <si>
+    <t>18.4 ±1.5</t>
+  </si>
+  <si>
+    <t>25.5 ±12.9</t>
+  </si>
+  <si>
+    <t>1.6 ±2.8</t>
+  </si>
+  <si>
+    <t>349.4 ±2.3</t>
+  </si>
+  <si>
+    <t>356.1 ±8.0</t>
+  </si>
+  <si>
+    <t>358.0 ±4.4</t>
+  </si>
+  <si>
+    <t>346.0 ±10.8</t>
+  </si>
+  <si>
+    <t>3.7 ±1.8</t>
+  </si>
+  <si>
+    <t>359.2 ±1.6</t>
+  </si>
+  <si>
+    <t>10.7 ±3.0</t>
+  </si>
+  <si>
+    <t>1.9 ±1.9</t>
+  </si>
+  <si>
+    <t>354.0 ±29.2</t>
+  </si>
+  <si>
+    <t>31.1 ±3.5</t>
+  </si>
+  <si>
+    <t>2.0 ±1.6</t>
+  </si>
+  <si>
+    <t>4.6 ±3.0</t>
+  </si>
+  <si>
+    <t>344.6 ±8.5</t>
+  </si>
+  <si>
+    <t>9.4 ±3.5</t>
+  </si>
+  <si>
+    <t>0.4 ±0.9</t>
+  </si>
+  <si>
+    <t>9.7 ±1.6</t>
+  </si>
+  <si>
+    <t>358.1 ±3.2</t>
+  </si>
+  <si>
+    <t>351.2 ±8.1</t>
+  </si>
+  <si>
+    <t>347.9 ±4.6</t>
+  </si>
+  <si>
+    <t>358.0 ±2.7</t>
+  </si>
+  <si>
+    <t>2009 - 2014</t>
+  </si>
+  <si>
+    <t>206.5 ±3.6</t>
+  </si>
+  <si>
+    <t>2015 - 2017</t>
+  </si>
+  <si>
+    <t>11.8 ±2.4</t>
+  </si>
+  <si>
+    <t>157.5 ±3.1</t>
+  </si>
+  <si>
+    <t>354.6 ±0.8</t>
+  </si>
+  <si>
+    <t>1.6 ±2.5</t>
+  </si>
+  <si>
+    <t>14.3 ±1.3</t>
+  </si>
+  <si>
+    <t>12.3 ±1.8</t>
+  </si>
+  <si>
+    <t>14.6 ±3.8</t>
+  </si>
+  <si>
+    <t>12.8 ±1.3</t>
+  </si>
+  <si>
+    <t>4.1 ±1.0</t>
+  </si>
+  <si>
+    <t>1.8 ±1.5</t>
+  </si>
+  <si>
+    <t>356.1 ±1.6</t>
+  </si>
+  <si>
+    <t>355.0 ±6.6</t>
+  </si>
+  <si>
+    <t>1.5 ±6.9</t>
+  </si>
+  <si>
+    <t>4.1 ±11.1</t>
+  </si>
+  <si>
+    <t>3.4 ±0.8</t>
+  </si>
+  <si>
+    <t>3.2 ±1.7</t>
+  </si>
+  <si>
+    <t>341.5 ±2.0</t>
+  </si>
+  <si>
+    <t>350.3 ±1.9</t>
+  </si>
+  <si>
+    <t>359.3 ±2.0</t>
+  </si>
+  <si>
+    <t>357.7 ±2.0</t>
+  </si>
+  <si>
+    <t>26.1 ±16.0</t>
+  </si>
+  <si>
+    <t>350.5 ±21.9</t>
+  </si>
+  <si>
+    <t>2.3 ±1.6</t>
+  </si>
+  <si>
+    <t>2009 - 2015</t>
+  </si>
+  <si>
+    <t>10.2 ±1.3</t>
+  </si>
+  <si>
+    <t>11.4 ±3.6</t>
+  </si>
+  <si>
+    <t>1.4 ±1.4</t>
+  </si>
+  <si>
+    <t>359.4 ±2.6</t>
+  </si>
+  <si>
+    <t>344.4 ±1.6</t>
+  </si>
+  <si>
+    <t>347.8 ±3.5</t>
+  </si>
+  <si>
+    <t>344.7 ±1.7</t>
+  </si>
+  <si>
+    <t>23.3 ±1.2</t>
+  </si>
+  <si>
+    <t>0.3 ±2.3</t>
+  </si>
+  <si>
+    <t>2009 - 2013</t>
+  </si>
+  <si>
+    <t>302.5 ±7.8</t>
+  </si>
+  <si>
+    <t>2014 - 2017</t>
+  </si>
+  <si>
+    <t>3.0 ±2.3</t>
+  </si>
+  <si>
+    <t>6.1 ±4.3</t>
+  </si>
+  <si>
+    <t>358.7 ±8.7</t>
+  </si>
+  <si>
+    <t>23.5 ±3.4</t>
+  </si>
+  <si>
+    <t>353.7 ±2.6</t>
+  </si>
+  <si>
+    <t>351.6 ±5.9</t>
+  </si>
+  <si>
+    <t>Difference (º)</t>
+  </si>
+  <si>
+    <t>TMD</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Guralp CMG-3TB (120 sec. Broadband) + Guralp Affinity</t>
+  </si>
+  <si>
+    <t>148.4 ±3.2</t>
+  </si>
+  <si>
+    <t>64.4 ±8.0</t>
+  </si>
+  <si>
+    <t>CHAC</t>
+  </si>
+  <si>
+    <t>359.0 ±8.6</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Guralp CMG-3TB (1 sec. Short-period) + Guralp Affinity</t>
+  </si>
+  <si>
+    <t>2018 - 2019</t>
+  </si>
+  <si>
+    <t>262.5 ±7.9</t>
+  </si>
+  <si>
+    <t>200.6 ±7.0</t>
+  </si>
+  <si>
+    <t>62.2 ±4.5</t>
+  </si>
+  <si>
+    <t>148.8 ±2.4</t>
+  </si>
+  <si>
+    <t>137.9 ±3.4</t>
+  </si>
+  <si>
+    <t>236.8 ±4.0</t>
+  </si>
+  <si>
+    <t>126.3 ±8.2</t>
+  </si>
+  <si>
+    <t>6.5 ±14.1</t>
+  </si>
+  <si>
+    <t>1.5 ±3.6</t>
+  </si>
+  <si>
+    <t>99.3 ±2.3</t>
+  </si>
+  <si>
+    <t>209.1 ±9.8</t>
+  </si>
+  <si>
+    <t>332.2 ±1.4</t>
+  </si>
+  <si>
+    <t>246.4 ±8.0</t>
+  </si>
+  <si>
+    <t>24.9 ±1.3</t>
+  </si>
+  <si>
+    <t>250.4 ±1.5</t>
+  </si>
+  <si>
+    <t>237.8 ±3.0</t>
+  </si>
+  <si>
+    <t>348.3 ±6.8</t>
+  </si>
+  <si>
+    <t>211.8 ±1.9</t>
+  </si>
+  <si>
+    <t>250.2 ±2.0</t>
+  </si>
+  <si>
+    <t>324.2 ±2.4</t>
+  </si>
+  <si>
+    <t>209.0 ±2.3</t>
+  </si>
+  <si>
+    <t>39.1 ±2.7</t>
+  </si>
+  <si>
+    <t>18.0 ±2.7</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Geotech KS-2000BH (Broadband) + Geotech Smart-24R</t>
+  </si>
+  <si>
+    <t>2009 - 2018</t>
+  </si>
+  <si>
+    <t>200.9 ±8.8</t>
+  </si>
+  <si>
+    <t>2021 - 2022</t>
+  </si>
+  <si>
+    <t>353.5 ±6.2</t>
+  </si>
+  <si>
+    <t>107.0 ±1.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,6 +1159,32 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -642,10 +1194,62 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -655,13 +1259,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1211,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33E1C86-F9E7-404B-81EE-D157ED39344F}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2336,4 +2997,4464 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63096A76-B05E-6347-9880-528F6D586BB3}">
+  <dimension ref="A1:N122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="49.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="60.83203125" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="12"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="6">
+        <v>15.9018</v>
+      </c>
+      <c r="G3" s="6">
+        <v>101.9864</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="14">
+        <v>5</v>
+      </c>
+      <c r="K3" s="14">
+        <v>893</v>
+      </c>
+      <c r="L3" s="14">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="14">
+        <v>-7</v>
+      </c>
+      <c r="K4" s="14">
+        <v>199</v>
+      </c>
+      <c r="L4" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12.744199999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>102.3527</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>446</v>
+      </c>
+      <c r="L5" s="14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="14">
+        <v>-3</v>
+      </c>
+      <c r="K6" s="14">
+        <v>182</v>
+      </c>
+      <c r="L6" s="14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="6">
+        <v>19.932500000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <v>99.045299999999997</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>336</v>
+      </c>
+      <c r="L7" s="14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <v>314</v>
+      </c>
+      <c r="L8" s="14">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="6">
+        <v>18.813800000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <v>98.944299999999998</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>796</v>
+      </c>
+      <c r="L9" s="14">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="14">
+        <v>3</v>
+      </c>
+      <c r="K10" s="14">
+        <v>153</v>
+      </c>
+      <c r="L10" s="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20.228899999999999</v>
+      </c>
+      <c r="G11" s="6">
+        <v>100.3734</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>770</v>
+      </c>
+      <c r="L11" s="14">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
+        <v>261</v>
+      </c>
+      <c r="L12" s="14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="14">
+        <v>18.1922</v>
+      </c>
+      <c r="G13" s="14">
+        <v>98.610299999999995</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="14">
+        <v>-24</v>
+      </c>
+      <c r="K13" s="14">
+        <v>437</v>
+      </c>
+      <c r="L13" s="14">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="6">
+        <v>14.797000000000001</v>
+      </c>
+      <c r="G14" s="6">
+        <v>98.589299999999994</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14">
+        <v>201</v>
+      </c>
+      <c r="L14" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="J15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="14">
+        <v>439</v>
+      </c>
+      <c r="L15" s="14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="14">
+        <v>18.026499999999999</v>
+      </c>
+      <c r="G16" s="14">
+        <v>101.0689</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="14">
+        <v>-3</v>
+      </c>
+      <c r="K16" s="14">
+        <v>378</v>
+      </c>
+      <c r="L16" s="14">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="6">
+        <v>16.337800000000001</v>
+      </c>
+      <c r="G17" s="6">
+        <v>102.82299999999999</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" s="14">
+        <v>6</v>
+      </c>
+      <c r="K17" s="14">
+        <v>733</v>
+      </c>
+      <c r="L17" s="14">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="J18" s="14">
+        <v>6</v>
+      </c>
+      <c r="K18" s="14">
+        <v>201</v>
+      </c>
+      <c r="L18" s="14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="6">
+        <v>8.2215000000000007</v>
+      </c>
+      <c r="G19" s="6">
+        <v>99.1965</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K19" s="14">
+        <v>663</v>
+      </c>
+      <c r="L19" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" s="14">
+        <v>5</v>
+      </c>
+      <c r="K20" s="14">
+        <v>199</v>
+      </c>
+      <c r="L20" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="14">
+        <v>16.883800000000001</v>
+      </c>
+      <c r="G21" s="14">
+        <v>101.88460000000001</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>247</v>
+      </c>
+      <c r="L21" s="14">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="6">
+        <v>14.5906</v>
+      </c>
+      <c r="G22" s="6">
+        <v>101.8442</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J22" s="14">
+        <v>6</v>
+      </c>
+      <c r="K22" s="14">
+        <v>635</v>
+      </c>
+      <c r="L22" s="14">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="14">
+        <v>-4</v>
+      </c>
+      <c r="K23" s="14">
+        <v>200</v>
+      </c>
+      <c r="L23" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="6">
+        <v>18.522600000000001</v>
+      </c>
+      <c r="G24" s="6">
+        <v>99.632300000000001</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" s="14">
+        <v>-4</v>
+      </c>
+      <c r="K24" s="14">
+        <v>761</v>
+      </c>
+      <c r="L24" s="14">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>442</v>
+      </c>
+      <c r="L25" s="14">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="6">
+        <v>17.5093</v>
+      </c>
+      <c r="G26" s="6">
+        <v>101.26439999999999</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" s="14">
+        <v>24</v>
+      </c>
+      <c r="K26" s="14">
+        <v>675</v>
+      </c>
+      <c r="L26" s="14">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" s="14">
+        <v>18</v>
+      </c>
+      <c r="K27" s="14">
+        <v>208</v>
+      </c>
+      <c r="L27" s="14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="6">
+        <v>19.314900000000002</v>
+      </c>
+      <c r="G28" s="6">
+        <v>97.963200000000001</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" s="14">
+        <v>26</v>
+      </c>
+      <c r="K28" s="14">
+        <v>666</v>
+      </c>
+      <c r="L28" s="14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" s="14">
+        <v>2</v>
+      </c>
+      <c r="K29" s="14">
+        <v>193</v>
+      </c>
+      <c r="L29" s="14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="6">
+        <v>18.176400000000001</v>
+      </c>
+      <c r="G30" s="6">
+        <v>97.930999999999997</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="J30" s="14">
+        <v>-11</v>
+      </c>
+      <c r="K30" s="14">
+        <v>542</v>
+      </c>
+      <c r="L30" s="14">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J31" s="14">
+        <v>-4</v>
+      </c>
+      <c r="K31" s="14">
+        <v>396</v>
+      </c>
+      <c r="L31" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="6">
+        <v>19.2835</v>
+      </c>
+      <c r="G32" s="6">
+        <v>100.91160000000001</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K32" s="14">
+        <v>815</v>
+      </c>
+      <c r="L32" s="14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" s="14">
+        <v>-14</v>
+      </c>
+      <c r="K33" s="14">
+        <v>139</v>
+      </c>
+      <c r="L33" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="6">
+        <v>14.315200000000001</v>
+      </c>
+      <c r="G34" s="6">
+        <v>101.32089999999999</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="14">
+        <v>4</v>
+      </c>
+      <c r="K34" s="14">
+        <v>518</v>
+      </c>
+      <c r="L34" s="14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="14">
+        <v>180</v>
+      </c>
+      <c r="L35" s="14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="6">
+        <v>18.063500000000001</v>
+      </c>
+      <c r="G36" s="6">
+        <v>103.14570000000001</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="J36" s="14">
+        <v>11</v>
+      </c>
+      <c r="K36" s="14">
+        <v>812</v>
+      </c>
+      <c r="L36" s="14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="J37" s="14">
+        <v>2</v>
+      </c>
+      <c r="K37" s="14">
+        <v>196</v>
+      </c>
+      <c r="L37" s="14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="6">
+        <v>17.147600000000001</v>
+      </c>
+      <c r="G38" s="6">
+        <v>104.6122</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" s="14">
+        <v>-6</v>
+      </c>
+      <c r="K38" s="14">
+        <v>336</v>
+      </c>
+      <c r="L38" s="14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" s="14">
+        <v>31</v>
+      </c>
+      <c r="K39" s="14">
+        <v>433</v>
+      </c>
+      <c r="L39" s="14">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="6">
+        <v>12.9232</v>
+      </c>
+      <c r="G40" s="6">
+        <v>100.8657</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="14">
+        <v>2</v>
+      </c>
+      <c r="K40" s="14">
+        <v>782</v>
+      </c>
+      <c r="L40" s="14">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" s="14">
+        <v>5</v>
+      </c>
+      <c r="K41" s="14">
+        <v>193</v>
+      </c>
+      <c r="L41" s="14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="6">
+        <v>19.360299999999999</v>
+      </c>
+      <c r="G42" s="6">
+        <v>99.869200000000006</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="J42" s="14">
+        <v>-15</v>
+      </c>
+      <c r="K42" s="14">
+        <v>754</v>
+      </c>
+      <c r="L42" s="14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="J43" s="14">
+        <v>9</v>
+      </c>
+      <c r="K43" s="14">
+        <v>178</v>
+      </c>
+      <c r="L43" s="14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F44" s="6">
+        <v>16.573499999999999</v>
+      </c>
+      <c r="G44" s="6">
+        <v>100.9688</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="K44" s="14">
+        <v>682</v>
+      </c>
+      <c r="L44" s="14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="J45" s="14">
+        <v>10</v>
+      </c>
+      <c r="K45" s="14">
+        <v>195</v>
+      </c>
+      <c r="L45" s="14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="6">
+        <v>12.9133</v>
+      </c>
+      <c r="G46" s="6">
+        <v>99.626800000000003</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="J46" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K46" s="14">
+        <v>676</v>
+      </c>
+      <c r="L46" s="14">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="J47" s="14">
+        <v>-9</v>
+      </c>
+      <c r="K47" s="14">
+        <v>194</v>
+      </c>
+      <c r="L47" s="14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="6">
+        <v>17.189299999999999</v>
+      </c>
+      <c r="G48" s="6">
+        <v>100.4165</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J48" s="14">
+        <v>-12</v>
+      </c>
+      <c r="K48" s="14">
+        <v>545</v>
+      </c>
+      <c r="L48" s="14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="J49" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K49" s="14">
+        <v>200</v>
+      </c>
+      <c r="L49" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F50" s="6">
+        <v>18.498899999999999</v>
+      </c>
+      <c r="G50" s="6">
+        <v>100.22929999999999</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="J50" s="14">
+        <v>-154</v>
+      </c>
+      <c r="K50" s="14">
+        <v>206</v>
+      </c>
+      <c r="L50" s="14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J51" s="14">
+        <v>12</v>
+      </c>
+      <c r="K51" s="14">
+        <v>175</v>
+      </c>
+      <c r="L51" s="14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J52" s="14">
+        <v>157</v>
+      </c>
+      <c r="K52" s="14">
+        <v>189</v>
+      </c>
+      <c r="L52" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="6">
+        <v>7.8914</v>
+      </c>
+      <c r="G53" s="6">
+        <v>98.334400000000002</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J53" s="14">
+        <v>-5</v>
+      </c>
+      <c r="K53" s="14">
+        <v>821</v>
+      </c>
+      <c r="L53" s="14">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="J54" s="14">
+        <v>2</v>
+      </c>
+      <c r="K54" s="14">
+        <v>184</v>
+      </c>
+      <c r="L54" s="14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" s="6">
+        <v>12.4726</v>
+      </c>
+      <c r="G55" s="6">
+        <v>99.792900000000003</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="J55" s="14">
+        <v>14</v>
+      </c>
+      <c r="K55" s="14">
+        <v>788</v>
+      </c>
+      <c r="L55" s="14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="J56" s="14">
+        <v>12</v>
+      </c>
+      <c r="K56" s="14">
+        <v>197</v>
+      </c>
+      <c r="L56" s="14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="6">
+        <v>9.3903999999999996</v>
+      </c>
+      <c r="G57" s="6">
+        <v>98.477800000000002</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J57" s="14">
+        <v>15</v>
+      </c>
+      <c r="K57" s="14">
+        <v>210</v>
+      </c>
+      <c r="L57" s="14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J58" s="14">
+        <v>13</v>
+      </c>
+      <c r="K58" s="14">
+        <v>425</v>
+      </c>
+      <c r="L58" s="14">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="6">
+        <v>7.1757999999999997</v>
+      </c>
+      <c r="G59" s="6">
+        <v>100.6156</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="J59" s="14">
+        <v>4</v>
+      </c>
+      <c r="K59" s="14">
+        <v>515</v>
+      </c>
+      <c r="L59" s="14">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J60" s="14">
+        <v>2</v>
+      </c>
+      <c r="K60" s="14">
+        <v>217</v>
+      </c>
+      <c r="L60" s="14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F61" s="6">
+        <v>16.974</v>
+      </c>
+      <c r="G61" s="6">
+        <v>103.9811</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="J61" s="14">
+        <v>-4</v>
+      </c>
+      <c r="K61" s="14">
+        <v>486</v>
+      </c>
+      <c r="L61" s="14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J62" s="14">
+        <v>-5</v>
+      </c>
+      <c r="K62" s="14">
+        <v>162</v>
+      </c>
+      <c r="L62" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="6">
+        <v>14.012</v>
+      </c>
+      <c r="G63" s="6">
+        <v>102.6426</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="J63" s="14">
+        <v>2</v>
+      </c>
+      <c r="K63" s="14">
+        <v>610</v>
+      </c>
+      <c r="L63" s="14">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="J64" s="14">
+        <v>4</v>
+      </c>
+      <c r="K64" s="14">
+        <v>200</v>
+      </c>
+      <c r="L64" s="14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="6">
+        <v>14.3948</v>
+      </c>
+      <c r="G65" s="6">
+        <v>99.121300000000005</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="J65" s="14">
+        <v>3</v>
+      </c>
+      <c r="K65" s="14">
+        <v>816</v>
+      </c>
+      <c r="L65" s="14">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="J66" s="14">
+        <v>3</v>
+      </c>
+      <c r="K66" s="14">
+        <v>200</v>
+      </c>
+      <c r="L66" s="14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="6">
+        <v>8.5954999999999995</v>
+      </c>
+      <c r="G67" s="6">
+        <v>99.602000000000004</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J67" s="14">
+        <v>-19</v>
+      </c>
+      <c r="K67" s="14">
+        <v>602</v>
+      </c>
+      <c r="L67" s="14">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="J68" s="14">
+        <v>-10</v>
+      </c>
+      <c r="K68" s="14">
+        <v>200</v>
+      </c>
+      <c r="L68" s="14">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" s="14">
+        <v>19.661100000000001</v>
+      </c>
+      <c r="G69" s="14">
+        <v>99.534599999999998</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="J69" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K69" s="14">
+        <v>341</v>
+      </c>
+      <c r="L69" s="14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="6">
+        <v>17.482099999999999</v>
+      </c>
+      <c r="G70" s="6">
+        <v>99.631</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="J70" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K70" s="14">
+        <v>465</v>
+      </c>
+      <c r="L70" s="14">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="J71" s="14">
+        <v>26</v>
+      </c>
+      <c r="K71" s="14">
+        <v>189</v>
+      </c>
+      <c r="L71" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" s="6">
+        <v>9.1662999999999997</v>
+      </c>
+      <c r="G72" s="6">
+        <v>99.629499999999993</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J72" s="14">
+        <v>-10</v>
+      </c>
+      <c r="K72" s="14">
+        <v>589</v>
+      </c>
+      <c r="L72" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J73" s="14">
+        <v>2</v>
+      </c>
+      <c r="K73" s="14">
+        <v>194</v>
+      </c>
+      <c r="L73" s="14">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" s="6">
+        <v>14.768800000000001</v>
+      </c>
+      <c r="G74" s="6">
+        <v>103.55289999999999</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="J74" s="14">
+        <v>10</v>
+      </c>
+      <c r="K74" s="14">
+        <v>666</v>
+      </c>
+      <c r="L74" s="14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="J75" s="14">
+        <v>11</v>
+      </c>
+      <c r="K75" s="14">
+        <v>91</v>
+      </c>
+      <c r="L75" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" s="6">
+        <v>8.9577000000000009</v>
+      </c>
+      <c r="G76" s="6">
+        <v>98.795100000000005</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="J76" s="14">
+        <v>1</v>
+      </c>
+      <c r="K76" s="14">
+        <v>654</v>
+      </c>
+      <c r="L76" s="14">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="J77" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K77" s="14">
+        <v>194</v>
+      </c>
+      <c r="L77" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" s="6">
+        <v>7.8362999999999996</v>
+      </c>
+      <c r="G78" s="6">
+        <v>99.691299999999998</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="J78" s="14">
+        <v>-16</v>
+      </c>
+      <c r="K78" s="14">
+        <v>602</v>
+      </c>
+      <c r="L78" s="14">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="J79" s="14">
+        <v>-12</v>
+      </c>
+      <c r="K79" s="14">
+        <v>201</v>
+      </c>
+      <c r="L79" s="14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="14">
+        <v>17.227499999999999</v>
+      </c>
+      <c r="G80" s="14">
+        <v>98.225499999999997</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="J80" s="14">
+        <v>-15</v>
+      </c>
+      <c r="K80" s="14">
+        <v>408</v>
+      </c>
+      <c r="L80" s="14">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F81" s="6">
+        <v>15.2773</v>
+      </c>
+      <c r="G81" s="6">
+        <v>105.4695</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="J81" s="14">
+        <v>23</v>
+      </c>
+      <c r="K81" s="14">
+        <v>540</v>
+      </c>
+      <c r="L81" s="14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="J82" s="14">
+        <v>0</v>
+      </c>
+      <c r="K82" s="14">
+        <v>201</v>
+      </c>
+      <c r="L82" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="6">
+        <v>16.025700000000001</v>
+      </c>
+      <c r="G83" s="6">
+        <v>98.860299999999995</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="J83" s="14">
+        <v>-58</v>
+      </c>
+      <c r="K83" s="14">
+        <v>396</v>
+      </c>
+      <c r="L83" s="14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J84" s="14">
+        <v>3</v>
+      </c>
+      <c r="K84" s="14">
+        <v>392</v>
+      </c>
+      <c r="L84" s="14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="J85" s="14">
+        <v>6</v>
+      </c>
+      <c r="K85" s="14">
+        <v>201</v>
+      </c>
+      <c r="L85" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F86" s="6">
+        <v>15.5586</v>
+      </c>
+      <c r="G86" s="6">
+        <v>99.445099999999996</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J86" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K86" s="14">
+        <v>705</v>
+      </c>
+      <c r="L86" s="14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="J87" s="14">
+        <v>24</v>
+      </c>
+      <c r="K87" s="14">
+        <v>202</v>
+      </c>
+      <c r="L87" s="14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F88" s="6">
+        <v>17.744299999999999</v>
+      </c>
+      <c r="G88" s="6">
+        <v>100.55410000000001</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="J88" s="14">
+        <v>-6</v>
+      </c>
+      <c r="K88" s="14">
+        <v>741</v>
+      </c>
+      <c r="L88" s="14">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="J89" s="14">
+        <v>-8</v>
+      </c>
+      <c r="K89" s="14">
+        <v>174</v>
+      </c>
+      <c r="L89" s="14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M92" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F94" s="14">
+        <v>13.7263</v>
+      </c>
+      <c r="G94" s="14">
+        <v>100.5598</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J94" s="14">
+        <v>98</v>
+      </c>
+      <c r="K94" s="14">
+        <v>269</v>
+      </c>
+      <c r="L94" s="14">
+        <v>39</v>
+      </c>
+      <c r="M94" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F95" s="14">
+        <v>18.045400000000001</v>
+      </c>
+      <c r="G95" s="14">
+        <v>104.13120000000001</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J95" s="14">
+        <v>2</v>
+      </c>
+      <c r="K95" s="14">
+        <v>465</v>
+      </c>
+      <c r="L95" s="14">
+        <v>198</v>
+      </c>
+      <c r="M95" s="14">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B96" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F96" s="14">
+        <v>13.567500000000001</v>
+      </c>
+      <c r="G96" s="14">
+        <v>101.45440000000001</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="J96" s="14">
+        <v>28</v>
+      </c>
+      <c r="K96" s="14">
+        <v>454</v>
+      </c>
+      <c r="L96" s="14">
+        <v>276</v>
+      </c>
+      <c r="M96" s="14">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F97" s="6">
+        <v>10.497999999999999</v>
+      </c>
+      <c r="G97" s="6">
+        <v>99.188500000000005</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="J97" s="14">
+        <v>173</v>
+      </c>
+      <c r="K97" s="14">
+        <v>125</v>
+      </c>
+      <c r="L97" s="14">
+        <v>55</v>
+      </c>
+      <c r="M97" s="6">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="24"/>
+      <c r="B98" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="J98" s="14">
+        <v>111</v>
+      </c>
+      <c r="K98" s="14">
+        <v>134</v>
+      </c>
+      <c r="L98" s="14">
+        <v>54</v>
+      </c>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F99" s="14">
+        <v>19.366</v>
+      </c>
+      <c r="G99" s="14">
+        <v>99.202200000000005</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J99" s="14">
+        <v>179</v>
+      </c>
+      <c r="K99" s="14">
+        <v>483</v>
+      </c>
+      <c r="L99" s="14">
+        <v>204</v>
+      </c>
+      <c r="M99" s="14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F100" s="14">
+        <v>20.1266</v>
+      </c>
+      <c r="G100" s="14">
+        <v>99.809299999999993</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="J100" s="14">
+        <v>58</v>
+      </c>
+      <c r="K100" s="14">
+        <v>402</v>
+      </c>
+      <c r="L100" s="14">
+        <v>218</v>
+      </c>
+      <c r="M100" s="14">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F101" s="14">
+        <v>19.849399999999999</v>
+      </c>
+      <c r="G101" s="14">
+        <v>100.1538</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="J101" s="14">
+        <v>112</v>
+      </c>
+      <c r="K101" s="14">
+        <v>432</v>
+      </c>
+      <c r="L101" s="14">
+        <v>213</v>
+      </c>
+      <c r="M101" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F102" s="6">
+        <v>16.4864</v>
+      </c>
+      <c r="G102" s="6">
+        <v>99.527000000000001</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="J102" s="14">
+        <v>179</v>
+      </c>
+      <c r="K102" s="14">
+        <v>212</v>
+      </c>
+      <c r="L102" s="14">
+        <v>75</v>
+      </c>
+      <c r="M102" s="6">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="24"/>
+      <c r="B103" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="J103" s="14">
+        <v>71</v>
+      </c>
+      <c r="K103" s="14">
+        <v>234</v>
+      </c>
+      <c r="L103" s="14">
+        <v>93</v>
+      </c>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F104" s="14">
+        <v>8.1034000000000006</v>
+      </c>
+      <c r="G104" s="14">
+        <v>98.975499999999997</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="J104" s="14">
+        <v>178</v>
+      </c>
+      <c r="K104" s="14">
+        <v>397</v>
+      </c>
+      <c r="L104" s="14">
+        <v>51</v>
+      </c>
+      <c r="M104" s="14">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F105" s="14">
+        <v>8.0742999999999991</v>
+      </c>
+      <c r="G105" s="14">
+        <v>98.584800000000001</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="J105" s="14">
+        <v>179</v>
+      </c>
+      <c r="K105" s="14">
+        <v>464</v>
+      </c>
+      <c r="L105" s="14">
+        <v>165</v>
+      </c>
+      <c r="M105" s="14">
+        <v>180.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F106" s="14">
+        <v>7.5448000000000004</v>
+      </c>
+      <c r="G106" s="14">
+        <v>99.046599999999998</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="J106" s="14">
+        <v>133</v>
+      </c>
+      <c r="K106" s="14">
+        <v>254</v>
+      </c>
+      <c r="L106" s="14">
+        <v>135</v>
+      </c>
+      <c r="M106" s="14">
+        <v>326.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F107" s="14">
+        <v>17.875399999999999</v>
+      </c>
+      <c r="G107" s="14">
+        <v>99.346299999999999</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="J107" s="14">
+        <v>172</v>
+      </c>
+      <c r="K107" s="14">
+        <v>252</v>
+      </c>
+      <c r="L107" s="14">
+        <v>80</v>
+      </c>
+      <c r="M107" s="14">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F108" s="14">
+        <v>16.752300000000002</v>
+      </c>
+      <c r="G108" s="14">
+        <v>98.935199999999995</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="J108" s="14">
+        <v>4</v>
+      </c>
+      <c r="K108" s="14">
+        <v>455</v>
+      </c>
+      <c r="L108" s="14">
+        <v>271</v>
+      </c>
+      <c r="M108" s="14">
+        <v>336.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F109" s="14">
+        <v>18.863600000000002</v>
+      </c>
+      <c r="G109" s="14">
+        <v>100.7418</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="J109" s="14">
+        <v>164</v>
+      </c>
+      <c r="K109" s="14">
+        <v>467</v>
+      </c>
+      <c r="L109" s="14">
+        <v>187</v>
+      </c>
+      <c r="M109" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F110" s="14">
+        <v>15.195399999999999</v>
+      </c>
+      <c r="G110" s="14">
+        <v>98.461200000000005</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="J110" s="14">
+        <v>49</v>
+      </c>
+      <c r="K110" s="14">
+        <v>425</v>
+      </c>
+      <c r="L110" s="14">
+        <v>184</v>
+      </c>
+      <c r="M110" s="14">
+        <v>336.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F111" s="14">
+        <v>17.798500000000001</v>
+      </c>
+      <c r="G111" s="14">
+        <v>98.432900000000004</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="J111" s="14">
+        <v>174</v>
+      </c>
+      <c r="K111" s="14">
+        <v>360</v>
+      </c>
+      <c r="L111" s="14">
+        <v>251</v>
+      </c>
+      <c r="M111" s="14">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F112" s="14">
+        <v>9.5220000000000002</v>
+      </c>
+      <c r="G112" s="14">
+        <v>99.137299999999996</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="J112" s="14">
+        <v>50</v>
+      </c>
+      <c r="K112" s="14">
+        <v>288</v>
+      </c>
+      <c r="L112" s="14">
+        <v>170</v>
+      </c>
+      <c r="M112" s="14">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F113" s="14">
+        <v>18.128900000000002</v>
+      </c>
+      <c r="G113" s="14">
+        <v>100.16249999999999</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="J113" s="14">
+        <v>6</v>
+      </c>
+      <c r="K113" s="14">
+        <v>469</v>
+      </c>
+      <c r="L113" s="14">
+        <v>22</v>
+      </c>
+      <c r="M113" s="14">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F114" s="14">
+        <v>8.6838999999999995</v>
+      </c>
+      <c r="G114" s="14">
+        <v>98.252099999999999</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="J114" s="14">
+        <v>6</v>
+      </c>
+      <c r="K114" s="14">
+        <v>468</v>
+      </c>
+      <c r="L114" s="14">
+        <v>255</v>
+      </c>
+      <c r="M114" s="14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F115" s="14">
+        <v>11.938499999999999</v>
+      </c>
+      <c r="G115" s="14">
+        <v>99.698800000000006</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="J115" s="14">
+        <v>23</v>
+      </c>
+      <c r="K115" s="14">
+        <v>427</v>
+      </c>
+      <c r="L115" s="14">
+        <v>134</v>
+      </c>
+      <c r="M115" s="14">
+        <v>272.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F116" s="14">
+        <v>13.489800000000001</v>
+      </c>
+      <c r="G116" s="14">
+        <v>99.792599999999993</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="J116" s="14">
+        <v>86</v>
+      </c>
+      <c r="K116" s="14">
+        <v>492</v>
+      </c>
+      <c r="L116" s="14">
+        <v>282</v>
+      </c>
+      <c r="M116" s="14">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F117" s="14">
+        <v>6.6536999999999997</v>
+      </c>
+      <c r="G117" s="14">
+        <v>100.08329999999999</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I117" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="J117" s="14">
+        <v>161</v>
+      </c>
+      <c r="K117" s="14">
+        <v>452</v>
+      </c>
+      <c r="L117" s="14">
+        <v>272</v>
+      </c>
+      <c r="M117" s="14">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F118" s="14">
+        <v>15.6716</v>
+      </c>
+      <c r="G118" s="14">
+        <v>100.13209999999999</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="J118" s="14">
+        <v>54</v>
+      </c>
+      <c r="K118" s="14">
+        <v>402</v>
+      </c>
+      <c r="L118" s="14">
+        <v>300</v>
+      </c>
+      <c r="M118" s="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F119" s="14">
+        <v>9.1449999999999996</v>
+      </c>
+      <c r="G119" s="14">
+        <v>99.633399999999995</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="J119" s="14">
+        <v>39</v>
+      </c>
+      <c r="K119" s="14">
+        <v>337</v>
+      </c>
+      <c r="L119" s="14">
+        <v>205</v>
+      </c>
+      <c r="M119" s="14">
+        <v>338.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F120" s="6">
+        <v>13.6684</v>
+      </c>
+      <c r="G120" s="6">
+        <v>100.60680000000001</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="I120" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="J120" s="14">
+        <v>159</v>
+      </c>
+      <c r="K120" s="14">
+        <v>704</v>
+      </c>
+      <c r="L120" s="14">
+        <v>105</v>
+      </c>
+      <c r="M120" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="24"/>
+      <c r="B121" s="23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="I121" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="J121" s="14">
+        <v>7</v>
+      </c>
+      <c r="K121" s="14">
+        <v>120</v>
+      </c>
+      <c r="L121" s="14">
+        <v>47</v>
+      </c>
+      <c r="M121" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F122" s="14">
+        <v>15.3535</v>
+      </c>
+      <c r="G122" s="14">
+        <v>100.0095</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I122" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="J122" s="14">
+        <v>169</v>
+      </c>
+      <c r="K122" s="14">
+        <v>474</v>
+      </c>
+      <c r="L122" s="14">
+        <v>231</v>
+      </c>
+      <c r="M122" s="14">
+        <v>276.39999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="207">
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>